--- a/target/classes/data/loginData.xlsx
+++ b/target/classes/data/loginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naayeem/eclipse-workspace/selenium4Framework/src/main/java/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\eclipse\selenium4Framework\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0D3C6-90D3-7644-AFDF-0EDAE02F76A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D3C218-E2FD-4C25-A949-76483EA809A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40300" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{BD26C760-748F-BD47-8678-B89A5517D306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD26C760-748F-BD47-8678-B89A5517D306}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -44,38 +44,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>hjhgakhk@gmail.com</t>
+    <t>naayeem@gmail.com</t>
   </si>
   <si>
-    <t>hghjkshpassword@gmail.com</t>
-  </si>
-  <si>
-    <t>ghjgfjkhsjk</t>
-  </si>
-  <si>
-    <t>hagkh</t>
-  </si>
-  <si>
-    <t>hghjkshord@gmail.com</t>
-  </si>
-  <si>
-    <t>hfkdjshf</t>
-  </si>
-  <si>
-    <t>dfgd</t>
-  </si>
-  <si>
-    <t>hghjksorlgmail.com</t>
+    <t>Abcd1234$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,14 +88,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,18 +410,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FA9D7E-07FA-8440-9C1B-E927387C4292}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,39 +429,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DFAF8431-8D19-4E54-A5FE-F9D460C3E3C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>